--- a/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはHumanName DataTypeに対して、患者のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
+    <t>このデータタイプはHumanName DataTypeに対して、患者データを送受信するための基礎となる制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -253,7 +256,7 @@
   </si>
   <si>
     <t>A human's name with the ability to identify parts and usage.
-識別のための人の名前情報、</t>
+識別のための人の名前情報</t>
   </si>
   <si>
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
@@ -264,126 +267,133 @@
 </t>
   </si>
   <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
+    <t>HumanName.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>HumanName.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>nameRepresentationUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-EN-representation}
+</t>
+  </si>
+  <si>
+    <t>ABC | IDE | SYL</t>
+  </si>
+  <si>
+    <t>Name Representation.
+名前の表現方法</t>
+  </si>
+  <si>
+    <t>The transcription of the name - how it is represented (for e.g. Japanese names).
+名前の文字起こし-表現方法（日本の名前など）。</t>
+  </si>
+  <si>
+    <t>ENXP.use</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.
+この名前の使用目的</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.
+アプリケーションは、名前が明示的に一時的な名前（temp ）あるいは以前の名前だ（old ）と設定されていない場合には、現時点での名前だとみなしてよい。</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.
+一連の名前の中から、特定の使用状況に適した名前を選択できるようになる。</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
-    <t>HumanName.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>HumanName.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>NameRepresentationUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-EN-representation}
-</t>
-  </si>
-  <si>
-    <t>ABC | IDE | SYL</t>
-  </si>
-  <si>
-    <t>Name Representation.
-名前の表現方法</t>
-  </si>
-  <si>
-    <t>The transcription of the name - how it is represented (for e.g. Japanese names).
-名前の文字起こし-表現方法（日本の名前など）。</t>
-  </si>
-  <si>
-    <t>ENXP.use</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.
-この名前の使用目的</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.
-アプリケーションは、名前が明示的に一時的な名前（temp ）あるいは以前の名前だ（old ）と設定されていない場合には、現時点での名前だとみなしてよい。</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.
-一連の名前の中から、特定の使用状況に適した名前を選択できるようになる。</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
     <t>XPN.7, but often indicated by which field contains the name</t>
   </si>
   <si>
@@ -396,15 +406,15 @@
     <t>HumanName.text</t>
   </si>
   <si>
-    <t>Text representation of the full name　名前全体のテキスト表現</t>
+    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.
-アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。</t>
+アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.
-テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。</t>
+テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -450,14 +460,14 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names　名前の名の部分で、ミドルネームを含む。</t>
+    <t>Given names (not always 'first'). Includes middle names　名前の名の部分で、ミドルネームを含む</t>
   </si>
   <si>
     <t>Given name.
 名前の名の部分。</t>
   </si>
   <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to practical limitations.  This element is not called "first name" since given names do not always come first.
 イニシャルのみが記録されている場合は、フルネームの部分の代わりに使用できる。イニシャルは複数の名前に分けることができるが、多くの場合、実用的な制限のためではない。名が常に最初に来るとは限らないため、この要素は「first name」とは呼ばない。</t>
   </si>
   <si>
@@ -524,8 +534,8 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-Period（期間）は時間の範囲を指定します。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
+Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>
   <si>
@@ -787,55 +797,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -855,258 +865,258 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.71484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="25.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="56.171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="24.78515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -1124,23 +1134,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>88</v>
@@ -1154,74 +1164,74 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1230,104 +1240,106 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1335,871 +1347,871 @@
         <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,120 +129,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ServD</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -252,21 +138,27 @@
     <t>*</t>
   </si>
   <si>
-    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.
-識別のための人の名前情報</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
-名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>人の名前情報、その一部分と使い方</t>
+  </si>
+  <si>
+    <t>識別のための人の名前情報</t>
+  </si>
+  <si>
+    <t>名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>XPN</t>
   </si>
   <si>
@@ -286,10 +178,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -309,13 +201,13 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -331,8 +223,11 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>HumanName.extension:nameRepresentationUse</t>
   </si>
   <si>
     <t>nameRepresentationUse</t>
@@ -342,15 +237,13 @@
 </t>
   </si>
   <si>
-    <t>ABC | IDE | SYL</t>
-  </si>
-  <si>
-    <t>Name Representation.
-名前の表現方法</t>
-  </si>
-  <si>
-    <t>The transcription of the name - how it is represented (for e.g. Japanese names).
-名前の文字起こし-表現方法（日本の名前など）。</t>
+    <t>ABC |IDE |Syl / ABC | IDE | SYL</t>
+  </si>
+  <si>
+    <t>名前の表現方法</t>
+  </si>
+  <si>
+    <t>名前の文字起こし-表現方法（日本の名前など）。</t>
   </si>
   <si>
     <t>ENXP.use</t>
@@ -366,34 +259,27 @@
 </t>
   </si>
   <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.
-この名前の使用目的</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.
-アプリケーションは、名前が明示的に一時的な名前（temp ）あるいは以前の名前だ（old ）と設定されていない場合には、現時点での名前だとみなしてよい。</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.
-一連の名前の中から、特定の使用状況に適した名前を選択できるようになる。</t>
+    <t>通常|公式|一時的|ニックネーム|匿名|古い|未婚女性 / usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>この名前の目的を特定します。 / Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、名前が最新であると想定できます。 / Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストに適切な名前を許可します。名前のセットの中から選択できます。 / Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The use of a human name.</t>
+    <t>人間名の使用。 / The use of a human name.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>XPN.7, but often indicated by which field contains the name</t>
   </si>
   <si>
@@ -406,18 +292,16 @@
     <t>HumanName.text</t>
   </si>
   <si>
-    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.
-アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.
-テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
+    <t>フルネームのテキスト表現 / Text representation of the full name</t>
+  </si>
+  <si>
+    <t>表示する必要があるため、名前全体を指定します。アプリケーションUIで。これは、特定の部分の代わりに、または特定の部分と同様に提供される場合があります。 / Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>テキスト表現とパーツの両方を提供できます。名前を更新するアプリケーションは、テキストとパーツの両方が存在する場合、一部に見つからないテキストにコンテンツが含まれていないことを保証するものとします。 / Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
     <t>implied by XPN.11</t>
@@ -433,15 +317,13 @@
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')　名前のうち姓の部分。ファミリ名</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.
-家系図にリンクする名前の部分。一部の文化では、息子の家系の名前は父親の名である。</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).
-ファミリ名は、拡張子（de、nl、es関連のカルチャ）を使用して特定の部分に分解できる。</t>
+    <t>姓（「姓」と呼ばれることが多い） / Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>系図にリンクする名前の部分。一部の文化（例：エリトリア）では、息子の姓は父親の名です。 / The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>姓は、拡張機能（DE、NL、ES関連の培養）を使用して特定の部品に分解できます。 / Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
   </si>
   <si>
     <t>XPN.1/FN.1</t>
@@ -460,15 +342,13 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names　名前の名の部分で、ミドルネームを含む</t>
-  </si>
-  <si>
-    <t>Given name.
-名前の名の部分。</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to practical limitations.  This element is not called "first name" since given names do not always come first.
-イニシャルのみが記録されている場合は、フルネームの部分の代わりに使用できる。イニシャルは複数の名前に分けることができるが、多くの場合、実用的な制限のためではない。名が常に最初に来るとは限らないため、この要素は「first name」とは呼ばない。</t>
+    <t>指定された名前（常に「最初」ではありません）。ミドルネームが含まれています / Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>名。 / Given name.</t>
+  </si>
+  <si>
+    <t>イニシャルのみが記録されている場合、フルネームパーツの代わりに使用できます。イニシャルは複数の指定された名前に分離される場合がありますが、多くの場合、特定の制限によるものではありません。指定された名前が常に最初に来るとは限らないため、この要素は「名」とは呼ばれません。 / If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
   </si>
   <si>
     <t>XPN.2 + XPN.3</t>
@@ -483,15 +363,10 @@
     <t>HumanName.prefix</t>
   </si>
   <si>
-    <t>Parts that come before the name　名前の名の前に来る部分</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.
-学問的、法的な、雇用または貴族の地位などのために称号として取得され、名前の先頭に表示される名前の一部。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列のサイズは1MBを超えてはならないことに注意。</t>
+    <t>名前の前に来るパーツ / Parts that come before the name</t>
+  </si>
+  <si>
+    <t>アカデミック、リーガル、雇用、または貴族のステータスなどのためにタイトルとして取得され、名前の冒頭に表示される名前の一部。 / Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
     <t>XPN.5</t>
@@ -506,11 +381,10 @@
     <t>HumanName.suffix</t>
   </si>
   <si>
-    <t>Parts that come after the name　名前の名のあとに続く部分</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.
-学問的、法的な、雇用または貴族の地位などのために称号として取得され、名前の最後に表示される名前の一部。</t>
+    <t>名前の後に来るパーツ / Parts that come after the name</t>
+  </si>
+  <si>
+    <t>アカデミック、リーガル、雇用、または貴族のステータスなどのためにタイトルとして取得され、名前の最後に表示される名前の一部。 / Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
   </si>
   <si>
     <t>XPN/4</t>
@@ -526,20 +400,13 @@
 </t>
   </si>
   <si>
-    <t>Time period when name was/is in use　名前が使われる期間</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.
-この名前が指名された人に対して有効であった期間。</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
-Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
-Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
-  </si>
-  <si>
-    <t>Allows names to be placed in historical context.</t>
+    <t>名前が使用されていた期間 / Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>この名前が指定者に対して有効である期間を示します。 / Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>名前を履歴上の文脈に配置できます。 / Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>XPN.13 + XPN.14</t>
@@ -670,10 +537,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -855,7 +722,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -864,1354 +731,1264 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.90625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.34375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="38.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="143.6953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="25.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.62109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.1640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="40.62109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="56.17578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.78515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="56.17578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="24.78515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="C4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="O5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K7" t="s" s="2">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K8" t="s" s="2">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s" s="2">
+      <c r="K9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="J9" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K10" t="s" s="2">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="AL10" t="s" s="2">
-        <v>153</v>
+        <v>121</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>128</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,123 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: ServD</t>
   </si>
   <si>
     <t/>
@@ -722,7 +839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -735,10 +852,11 @@
     <col min="2" max="2" width="22.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="38.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -746,24 +864,24 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="143.6953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="40.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
@@ -771,1224 +889,1343 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>62</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O7" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-humanname.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -354,7 +354,7 @@
 </t>
   </si>
   <si>
-    <t>ABC |IDE |Syl / ABC | IDE | SYL</t>
+    <t>ABC | IDE | SYL</t>
   </si>
   <si>
     <t>名前の表現方法</t>
